--- a/xlsx/非法移民_intext.xlsx
+++ b/xlsx/非法移民_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>非法移民</t>
   </si>
@@ -29,13 +29,13 @@
     <t>人蛇 (妖怪)</t>
   </si>
   <si>
-    <t>政策_政策_美國_非法移民</t>
+    <t>政策_政策_美国_非法移民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E5%A2%83</t>
   </si>
   <si>
-    <t>邊境</t>
+    <t>边境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -77,31 +77,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>健康保險</t>
+    <t>健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%99%BC%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>開發中國家</t>
+    <t>开发中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A6%E5%8A%9B</t>
@@ -131,19 +131,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A3%E6%B0%91</t>
   </si>
   <si>
-    <t>難民</t>
+    <t>难民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>歧視</t>
+    <t>歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -155,31 +152,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E5%A2%83</t>
   </si>
   <si>
-    <t>美墨邊境</t>
+    <t>美墨边境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2016年美國總統選舉</t>
+    <t>2016年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E7%89%86</t>
   </si>
   <si>
-    <t>隔離牆</t>
+    <t>隔离墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E5%A4%96</t>
@@ -191,19 +188,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>拉丁裔美國人</t>
+    <t>拉丁裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E5%8C%97%E8%80%85</t>
   </si>
   <si>
-    <t>脫北者</t>
+    <t>脱北者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B8%82%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>黑市勞工</t>
+    <t>黑市劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%B7%9E%E9%BB%91%E4%BA%BA</t>
@@ -227,9 +224,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%B1%E5%8C%97%E8%80%85</t>
   </si>
   <si>
-    <t>脱北者</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
   </si>
   <si>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>阿拉伯地區</t>
+    <t>阿拉伯地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%86%85%E5%9C%B0</t>
@@ -269,25 +263,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%B6%8A%E5%8D%97%E8%88%B9%E6%B0%91%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>香港越南船民問題</t>
+    <t>香港越南船民问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%B5%E5%A3%98%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>抵壘政策</t>
+    <t>抵垒政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E7%A8%8B%E8%AD%89</t>
   </si>
   <si>
-    <t>單程證</t>
+    <t>单程证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E7%A8%8B%E8%AD%89</t>
   </si>
   <si>
-    <t>雙程證</t>
+    <t>双程证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%BA%BA</t>
@@ -311,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太平洋戰爭</t>
+    <t>太平洋战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%85%B1%E5%86%85%E6%88%98</t>
@@ -323,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B9%A3</t>
   </si>
   <si>
-    <t>法幣</t>
+    <t>法币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%9C%93%E5%88%B8</t>
   </si>
   <si>
-    <t>金圓券</t>
+    <t>金圆券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%9D%A9</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1</t>
   </si>
   <si>
-    <t>廣東</t>
+    <t>广东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E4%B8%89%E8%A7%92</t>
@@ -389,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E6%B8%AF%E6%AC%8A</t>
   </si>
   <si>
-    <t>居港權</t>
+    <t>居港权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E9%84%AD</t>
   </si>
   <si>
-    <t>明鄭</t>
+    <t>明郑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E7%90%85</t>
@@ -449,25 +443,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%9B%87%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>人蛇集團</t>
+    <t>人蛇集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%9C%81%E6%88%92%E5%9A%B4%E4%BB%A4</t>
   </si>
   <si>
-    <t>台灣省戒嚴令</t>
+    <t>台湾省戒严令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E6%B0%91</t>
   </si>
   <si>
-    <t>中華民國國民</t>
+    <t>中华民国国民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%A6%AC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>金馬地區</t>
+    <t>金马地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E6%B5%B7%E5%B2%B8%E5%B7%A1%E9%98%B2%E7%BD%B2</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>台灣海峽</t>
+    <t>台湾海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E5%9C%B0%E5%8C%BA</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%BF%AB%E5%AE%B3</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E8%98%AD%E7%B8%A3</t>
   </si>
   <si>
-    <t>宜蘭縣</t>
+    <t>宜兰县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
@@ -539,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -551,31 +545,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%A8%AE%E8%A1%8C%E6%A5%AD</t>
   </si>
   <si>
-    <t>特種行業</t>
+    <t>特种行业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%81%94%E4%BD%93</t>
@@ -587,19 +581,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%B4%80%E5%85%83%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>大紀元時報</t>
+    <t>大纪元时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E7%A7%BB%E6%B0%91%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>非洲人移民歐洲</t>
+    <t>非洲人移民欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%87%E5%A4%B4</t>
@@ -611,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E8%B1%AC%E4%BB%94</t>
   </si>
   <si>
-    <t>賣豬仔</t>
+    <t>卖猪仔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E8%9B%87_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>打蛇 (電影)</t>
+    <t>打蛇 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%AB%E6%B3%AA%E6%B4%BB%E7%9D%80</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%89%B2%E5%86%92%E9%9A%AA%E8%99%9F</t>
   </si>
   <si>
-    <t>金色冒險號</t>
+    <t>金色冒险号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%B7%E6%B8%A1</t>
@@ -1528,7 +1522,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1554,10 +1548,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1583,10 +1577,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1612,10 +1606,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -1641,10 +1635,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>9</v>
@@ -1670,10 +1664,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1699,10 +1693,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1728,10 +1722,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1757,10 +1751,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
         <v>45</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1786,10 +1780,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1815,10 +1809,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1844,10 +1838,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1873,10 +1867,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1902,10 +1896,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1931,10 +1925,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1960,10 +1954,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1989,10 +1983,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2018,10 +2012,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2047,10 +2041,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2076,10 +2070,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2105,10 +2099,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2134,10 +2128,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2163,10 +2157,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2192,10 +2186,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2221,10 +2215,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2250,10 +2244,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2279,10 +2273,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2308,10 +2302,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2337,10 +2331,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2366,10 +2360,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2395,10 +2389,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2424,10 +2418,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2453,10 +2447,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2482,10 +2476,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2511,10 +2505,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2540,10 +2534,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2569,10 +2563,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2598,10 +2592,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2627,10 +2621,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2656,10 +2650,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2685,10 +2679,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2714,10 +2708,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2743,10 +2737,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2772,10 +2766,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2801,10 +2795,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -2830,10 +2824,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2859,10 +2853,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2888,10 +2882,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2917,10 +2911,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2946,10 +2940,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2975,10 +2969,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3004,10 +2998,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3033,10 +3027,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3062,10 +3056,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3091,10 +3085,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3120,10 +3114,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3149,10 +3143,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3178,10 +3172,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3207,10 +3201,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3236,10 +3230,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3265,10 +3259,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3294,10 +3288,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3323,10 +3317,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3352,10 +3346,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3381,10 +3375,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3410,10 +3404,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3439,10 +3433,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3468,10 +3462,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3497,10 +3491,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3526,10 +3520,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3555,10 +3549,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -3584,10 +3578,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3613,10 +3607,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3642,10 +3636,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3671,10 +3665,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3700,10 +3694,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3729,10 +3723,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3758,10 +3752,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -3787,10 +3781,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3816,10 +3810,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3845,10 +3839,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3874,10 +3868,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3903,10 +3897,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3932,10 +3926,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3961,10 +3955,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3990,10 +3984,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>19</v>
